--- a/data/trans_orig/P04A_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P04A_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>9025</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3495</v>
+        <v>3097</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>19154</v>
+        <v>19433</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01567016149005421</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.006067665826282094</v>
+        <v>0.005377744365742156</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03325748635425796</v>
+        <v>0.03374074957963327</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -762,19 +762,19 @@
         <v>13577</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7710</v>
+        <v>7415</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>24734</v>
+        <v>25406</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01658644478146548</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.009418770990228767</v>
+        <v>0.009058828003344342</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03021764983746546</v>
+        <v>0.03103882963231941</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>21</v>
@@ -783,19 +783,19 @@
         <v>22602</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>13299</v>
+        <v>13420</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>37604</v>
+        <v>36154</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01620800751729059</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.009537224431212511</v>
+        <v>0.009623951537808326</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02696663471633123</v>
+        <v>0.0259263683741859</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>19767</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>12160</v>
+        <v>11918</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>30849</v>
+        <v>31049</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03432124607775338</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02111369976512618</v>
+        <v>0.02069331895349937</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05356351243052681</v>
+        <v>0.05391030020599401</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>18</v>
@@ -833,19 +833,19 @@
         <v>11110</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>6745</v>
+        <v>6801</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>17090</v>
+        <v>16770</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01357287199589693</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.008240698825278215</v>
+        <v>0.008308827934636854</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.0208791575318435</v>
+        <v>0.0204880175674416</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>37</v>
@@ -854,19 +854,19 @@
         <v>30877</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>21429</v>
+        <v>21879</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>41973</v>
+        <v>43754</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0221422282170732</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0153672838063055</v>
+        <v>0.01568972830939035</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03009983241313312</v>
+        <v>0.03137656572859816</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>75934</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>58257</v>
+        <v>58802</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>97641</v>
+        <v>97441</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1318447144624461</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1011511840624322</v>
+        <v>0.1020987998088375</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.169533778218152</v>
+        <v>0.1691877606196006</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>89</v>
@@ -904,19 +904,19 @@
         <v>60341</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>48163</v>
+        <v>49570</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>74367</v>
+        <v>73100</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.07371813394497873</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.05884054123577401</v>
+        <v>0.06055926784451365</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.09085322442576849</v>
+        <v>0.08930518757175612</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>160</v>
@@ -925,19 +925,19 @@
         <v>136275</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>114620</v>
+        <v>117576</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>159403</v>
+        <v>163893</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.09772518974645646</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.08219603792850651</v>
+        <v>0.08431543340189876</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1143105715545751</v>
+        <v>0.1175306517605215</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>27784</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>19355</v>
+        <v>19637</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>38706</v>
+        <v>37746</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04824078842021481</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03360688423000267</v>
+        <v>0.03409584794788094</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06720468294865392</v>
+        <v>0.06553926949937719</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>54</v>
@@ -975,19 +975,19 @@
         <v>32367</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>24468</v>
+        <v>24022</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>42609</v>
+        <v>42381</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03954272325336076</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02989279733690561</v>
+        <v>0.0293475634472159</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0520549145908708</v>
+        <v>0.05177599855925465</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>87</v>
@@ -996,19 +996,19 @@
         <v>60151</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>49071</v>
+        <v>48740</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>75505</v>
+        <v>74391</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04313514059438781</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03518941306906439</v>
+        <v>0.03495253210413272</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05414563066050328</v>
+        <v>0.05334734195613514</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>51609</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>38686</v>
+        <v>39201</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>67767</v>
+        <v>67913</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.08960823329929331</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.06717092781518734</v>
+        <v>0.06806467427544542</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1176641135700131</v>
+        <v>0.1179183473109851</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>84</v>
@@ -1046,19 +1046,19 @@
         <v>56361</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>44803</v>
+        <v>45872</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>68072</v>
+        <v>71805</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.06885569503443478</v>
+        <v>0.06885569503443477</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.05473553466053049</v>
+        <v>0.05604087173106295</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.08316313091801472</v>
+        <v>0.08772299195857673</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>134</v>
@@ -1067,19 +1067,19 @@
         <v>107970</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>91686</v>
+        <v>89039</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>127256</v>
+        <v>125794</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.07742677111893019</v>
+        <v>0.07742677111893016</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.06574958886818633</v>
+        <v>0.0638515586157508</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.09125727408544601</v>
+        <v>0.09020908505118065</v>
       </c>
     </row>
     <row r="9">
@@ -1096,19 +1096,19 @@
         <v>391818</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>368336</v>
+        <v>366582</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>414864</v>
+        <v>413364</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.6803148562502384</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6395434147797893</v>
+        <v>0.636498507993981</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7203306407482419</v>
+        <v>0.7177248264389193</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1161</v>
@@ -1117,19 +1117,19 @@
         <v>644781</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>623171</v>
+        <v>624155</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>663248</v>
+        <v>662246</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.7877241309898632</v>
+        <v>0.7877241309898634</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.7613234936278694</v>
+        <v>0.7625253715892523</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.8102846243986359</v>
+        <v>0.809060559309927</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1671</v>
@@ -1138,19 +1138,19 @@
         <v>1036599</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1004566</v>
+        <v>1003396</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1066197</v>
+        <v>1067254</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.7433626628058618</v>
+        <v>0.7433626628058617</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.7203913694476936</v>
+        <v>0.7195520715109618</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.7645877353309276</v>
+        <v>0.7653457468951108</v>
       </c>
     </row>
     <row r="10">
@@ -1242,19 +1242,19 @@
         <v>25409</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>13094</v>
+        <v>13588</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>46293</v>
+        <v>46882</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.0114664686137393</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.005909192908952418</v>
+        <v>0.006132264232837971</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02089139422770326</v>
+        <v>0.0211570340598221</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>16</v>
@@ -1263,19 +1263,19 @@
         <v>11940</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>7186</v>
+        <v>6846</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>19008</v>
+        <v>19250</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.005517683760615049</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.003320853849799765</v>
+        <v>0.003163651045042394</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.008784144970146108</v>
+        <v>0.008895921270015201</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>30</v>
@@ -1284,19 +1284,19 @@
         <v>37348</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>23693</v>
+        <v>24563</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>56687</v>
+        <v>59922</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.008527390983908829</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.005409570782124166</v>
+        <v>0.00560825099037877</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01294280539035301</v>
+        <v>0.01368144068459092</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>38184</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>25323</v>
+        <v>26347</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>53452</v>
+        <v>57719</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01723190371553207</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01142787248136394</v>
+        <v>0.01188989045665584</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02412191361599684</v>
+        <v>0.02604783871266213</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>44</v>
@@ -1334,19 +1334,19 @@
         <v>35234</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>25564</v>
+        <v>25100</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>47841</v>
+        <v>48209</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01628245433904488</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01181396150422197</v>
+        <v>0.01159959663428326</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.02210883906668153</v>
+        <v>0.02227876450666284</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>78</v>
@@ -1355,19 +1355,19 @@
         <v>73418</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>56794</v>
+        <v>57036</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>94232</v>
+        <v>93894</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01676281540724934</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01296727667549486</v>
+        <v>0.01302264092663837</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02151529055285436</v>
+        <v>0.02143810736298114</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>324612</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>287826</v>
+        <v>286532</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>363553</v>
+        <v>369620</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1464923766445265</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1298916223775649</v>
+        <v>0.1293075677720935</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1640657481843995</v>
+        <v>0.1668039441015332</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>339</v>
@@ -1405,19 +1405,19 @@
         <v>318148</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>284340</v>
+        <v>286418</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>352538</v>
+        <v>352857</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1470253569147968</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1314016489386714</v>
+        <v>0.1323620929517049</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1629182554304009</v>
+        <v>0.1630656123291834</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>588</v>
@@ -1426,19 +1426,19 @@
         <v>642759</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>589278</v>
+        <v>593028</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>694343</v>
+        <v>698411</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.1467557027570299</v>
+        <v>0.14675570275703</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1345448416766714</v>
+        <v>0.1354008513482481</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1585333571691978</v>
+        <v>0.1594620486416278</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>116926</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>94176</v>
+        <v>96148</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>144048</v>
+        <v>146536</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.0527671169323031</v>
+        <v>0.05276711693230311</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0425000134818613</v>
+        <v>0.04338996727818593</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.06500650881781048</v>
+        <v>0.06612961635471462</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>111</v>
@@ -1476,19 +1476,19 @@
         <v>82606</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>67574</v>
+        <v>67336</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>98868</v>
+        <v>99407</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03817485217281807</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.03122791354556146</v>
+        <v>0.03111787076441368</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.04568991426390245</v>
+        <v>0.04593894155759722</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>209</v>
@@ -1497,19 +1497,19 @@
         <v>199533</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>170201</v>
+        <v>171752</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>228862</v>
+        <v>232784</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.04555761112866966</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03886054394418985</v>
+        <v>0.03921454925155511</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05225402450491377</v>
+        <v>0.05314945642625334</v>
       </c>
     </row>
     <row r="15">
@@ -1526,19 +1526,19 @@
         <v>582704</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>537632</v>
+        <v>535313</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>635767</v>
+        <v>631604</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2629653231931022</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2426250634254481</v>
+        <v>0.2415785905981614</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2869118479160199</v>
+        <v>0.2850331494575963</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>780</v>
@@ -1547,19 +1547,19 @@
         <v>615581</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>573242</v>
+        <v>574873</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>656853</v>
+        <v>654276</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2844782364531994</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2649117969659257</v>
+        <v>0.2656659493838079</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3035512717384818</v>
+        <v>0.3023599697857597</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>1252</v>
@@ -1568,19 +1568,19 @@
         <v>1198285</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1137245</v>
+        <v>1136511</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>1264810</v>
+        <v>1259844</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2735940690086494</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2596573070357918</v>
+        <v>0.2594896938481766</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2887832007716196</v>
+        <v>0.2876491936162124</v>
       </c>
     </row>
     <row r="16">
@@ -1597,19 +1597,19 @@
         <v>1128062</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1074078</v>
+        <v>1072064</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1180353</v>
+        <v>1179511</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.5090768109007968</v>
+        <v>0.5090768109007969</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4847145803014093</v>
+        <v>0.4838058499624579</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5326750099622766</v>
+        <v>0.5322949780264213</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1622</v>
@@ -1618,19 +1618,19 @@
         <v>1100387</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1057957</v>
+        <v>1060393</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1146445</v>
+        <v>1145781</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.5085214163595259</v>
+        <v>0.5085214163595257</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4889128978799449</v>
+        <v>0.4900386619278132</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5298059774145354</v>
+        <v>0.5294989219597862</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2742</v>
@@ -1639,19 +1639,19 @@
         <v>2228449</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2160233</v>
+        <v>2161409</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2301025</v>
+        <v>2297413</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5088024107144929</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4932272148723353</v>
+        <v>0.493495717684446</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5253730413223691</v>
+        <v>0.5245483966969755</v>
       </c>
     </row>
     <row r="17">
@@ -1743,19 +1743,19 @@
         <v>4661</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>14103</v>
+        <v>16305</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.006611004198792529</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.001053985101825556</v>
+        <v>0.00105979639821965</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.020003012109111</v>
+        <v>0.02312552775498913</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>5</v>
@@ -1764,19 +1764,19 @@
         <v>3179</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>907</v>
+        <v>1144</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>7446</v>
+        <v>7234</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.004354932928639498</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.001242368242887868</v>
+        <v>0.001567017174880367</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.01020047149169846</v>
+        <v>0.009909358483875995</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>8</v>
@@ -1785,19 +1785,19 @@
         <v>7840</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>3357</v>
+        <v>3062</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>17770</v>
+        <v>17399</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.005463356925150212</v>
+        <v>0.005463356925150211</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.002339032513873788</v>
+        <v>0.002133767984737193</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.01238271091554299</v>
+        <v>0.01212432657454306</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>5638</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2177</v>
+        <v>2411</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11222</v>
+        <v>11536</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.007995989417029073</v>
+        <v>0.007995989417029071</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003088191817803428</v>
+        <v>0.00341947255395136</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01591709891831929</v>
+        <v>0.01636186036109086</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>10</v>
@@ -1835,19 +1835,19 @@
         <v>8872</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4738</v>
+        <v>4481</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>17772</v>
+        <v>16991</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.01215373549314374</v>
+        <v>0.01215373549314373</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.006490274240984673</v>
+        <v>0.006138743420964997</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02434473152140998</v>
+        <v>0.02327470908203873</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>17</v>
@@ -1856,19 +1856,19 @@
         <v>14510</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>8552</v>
+        <v>7900</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>24322</v>
+        <v>23532</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.01011100502485887</v>
+        <v>0.01011100502485886</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.00595940238828359</v>
+        <v>0.005505264810862911</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0169483942352072</v>
+        <v>0.01639813531404945</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>90969</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>72752</v>
+        <v>72595</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>112055</v>
+        <v>110622</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1290239882803617</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1031855378870444</v>
+        <v>0.1029628705009689</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1589308015966248</v>
+        <v>0.1568977858975322</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>89</v>
@@ -1906,19 +1906,19 @@
         <v>77221</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>62426</v>
+        <v>63070</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>94294</v>
+        <v>95200</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.105780685518416</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08551475034680406</v>
+        <v>0.08639665009591187</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1291679864268769</v>
+        <v>0.1304099822158698</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>164</v>
@@ -1927,19 +1927,19 @@
         <v>168190</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>143444</v>
+        <v>143551</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>197089</v>
+        <v>196704</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1172002868760259</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0999566631295675</v>
+        <v>0.1000312015664754</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1373379231727954</v>
+        <v>0.1370700776069408</v>
       </c>
     </row>
     <row r="21">
@@ -1956,19 +1956,19 @@
         <v>18254</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>10292</v>
+        <v>9606</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>31622</v>
+        <v>30983</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02589041659655435</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01459691856213305</v>
+        <v>0.01362484023057247</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.04485064555382684</v>
+        <v>0.04394426809600998</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>28</v>
@@ -1977,19 +1977,19 @@
         <v>22921</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>15662</v>
+        <v>15752</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>32958</v>
+        <v>34968</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.03139892213364849</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02145478758856666</v>
+        <v>0.02157729404601621</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.04514697761041722</v>
+        <v>0.04790048263630957</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>44</v>
@@ -1998,19 +1998,19 @@
         <v>41176</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>30319</v>
+        <v>30027</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>58384</v>
+        <v>56786</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02869255385397393</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02112727217759624</v>
+        <v>0.02092396709281455</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.04068380147906504</v>
+        <v>0.0395702127772725</v>
       </c>
     </row>
     <row r="22">
@@ -2027,19 +2027,19 @@
         <v>203738</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>176584</v>
+        <v>175565</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>230423</v>
+        <v>232154</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2889660325524532</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2504530517600219</v>
+        <v>0.2490081464402173</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3268143459013005</v>
+        <v>0.3292695039548265</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>300</v>
@@ -2048,19 +2048,19 @@
         <v>228077</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>205551</v>
+        <v>206949</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>250329</v>
+        <v>249070</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3124311972062899</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2815734789215482</v>
+        <v>0.2834892623588863</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3429128297313913</v>
+        <v>0.3411891593203508</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>465</v>
@@ -2069,19 +2069,19 @@
         <v>431814</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>398801</v>
+        <v>397119</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>471284</v>
+        <v>468336</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3009025935099079</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2778975473368571</v>
+        <v>0.2767253571487761</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3284061348717489</v>
+        <v>0.326351776594181</v>
       </c>
     </row>
     <row r="23">
@@ -2098,19 +2098,19 @@
         <v>381797</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>353689</v>
+        <v>354062</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>411013</v>
+        <v>411868</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.5415125689548093</v>
+        <v>0.5415125689548091</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5016453053791018</v>
+        <v>0.5021749642400477</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5829495013825331</v>
+        <v>0.5841633981218499</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>567</v>
@@ -2119,19 +2119,19 @@
         <v>389737</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>366916</v>
+        <v>366201</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>415059</v>
+        <v>412107</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.5338805267198622</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5026192180144909</v>
+        <v>0.5016404469024135</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.5685678919781542</v>
+        <v>0.5645246300348252</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>977</v>
@@ -2140,19 +2140,19 @@
         <v>771534</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>732575</v>
+        <v>731463</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>808508</v>
+        <v>805098</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.5376302038100833</v>
+        <v>0.5376302038100832</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5104826703106001</v>
+        <v>0.5097073457278261</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5633951146285783</v>
+        <v>0.5610187045766891</v>
       </c>
     </row>
     <row r="24">
@@ -2244,19 +2244,19 @@
         <v>39095</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>24522</v>
+        <v>23474</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>60366</v>
+        <v>62612</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.01117983636068366</v>
+        <v>0.01117983636068365</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.007012398122329727</v>
+        <v>0.006712940555811539</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01726263113700503</v>
+        <v>0.01790504620246832</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>36</v>
@@ -2265,19 +2265,19 @@
         <v>28695</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>20046</v>
+        <v>19838</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>43761</v>
+        <v>42010</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.007729538426792837</v>
+        <v>0.007729538426792836</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.005399696083282703</v>
+        <v>0.005343556161250504</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01178755621331133</v>
+        <v>0.01131613163301511</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>59</v>
@@ -2286,19 +2286,19 @@
         <v>67790</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>50131</v>
+        <v>48421</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>94403</v>
+        <v>91647</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.009403107694336107</v>
+        <v>0.00940310769433611</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.006953652862850454</v>
+        <v>0.006716400272054784</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01309450014277163</v>
+        <v>0.01271228336753352</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>63589</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>48036</v>
+        <v>48560</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>82391</v>
+        <v>83406</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01818432781170564</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01373676199591363</v>
+        <v>0.01388673488135332</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02356125248649547</v>
+        <v>0.02385141631809319</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>72</v>
@@ -2336,19 +2336,19 @@
         <v>55216</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>42689</v>
+        <v>43894</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>70060</v>
+        <v>70851</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01487316901907407</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01149877339785339</v>
+        <v>0.01182344816053143</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01887172882824379</v>
+        <v>0.01908476100187149</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>132</v>
@@ -2357,19 +2357,19 @@
         <v>118804</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>98767</v>
+        <v>98412</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>142981</v>
+        <v>142702</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01647924875522454</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0136999164774932</v>
+        <v>0.01365068422467973</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.0198328095272118</v>
+        <v>0.01979407262734795</v>
       </c>
     </row>
     <row r="27">
@@ -2386,19 +2386,19 @@
         <v>491515</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>444705</v>
+        <v>444841</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>535488</v>
+        <v>543218</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1405578658028196</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1271715943447087</v>
+        <v>0.1272104627525396</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1531325464222287</v>
+        <v>0.1553430933431183</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>517</v>
@@ -2407,19 +2407,19 @@
         <v>455709</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>418139</v>
+        <v>416973</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>497777</v>
+        <v>498951</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1227519441413142</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1126317241257036</v>
+        <v>0.1123178489840637</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1340835605665926</v>
+        <v>0.1343998684324133</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>912</v>
@@ -2428,19 +2428,19 @@
         <v>947225</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>886462</v>
+        <v>882736</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1010809</v>
+        <v>1007460</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1313887180790867</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1229603346119648</v>
+        <v>0.1224436090861566</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1402084644983779</v>
+        <v>0.1397439825800048</v>
       </c>
     </row>
     <row r="28">
@@ -2457,19 +2457,19 @@
         <v>162964</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>137871</v>
+        <v>134426</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>196444</v>
+        <v>194388</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.04660264285777582</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.039426636102179</v>
+        <v>0.03844150495298561</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.05617685552748751</v>
+        <v>0.05558883716669748</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>193</v>
@@ -2478,19 +2478,19 @@
         <v>137895</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>117483</v>
+        <v>119391</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>158828</v>
+        <v>162286</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.03714404178215693</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.0316457113056832</v>
+        <v>0.03215958079476756</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.04278274971491938</v>
+        <v>0.04371409118068753</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>340</v>
@@ -2499,19 +2499,19 @@
         <v>300859</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>266569</v>
+        <v>267925</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>338397</v>
+        <v>340611</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.04173194241491672</v>
+        <v>0.04173194241491673</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03697557973181137</v>
+        <v>0.03716361925932226</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.04693871129638424</v>
+        <v>0.04724591013287654</v>
       </c>
     </row>
     <row r="29">
@@ -2528,19 +2528,19 @@
         <v>838050</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>778642</v>
+        <v>777179</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>900958</v>
+        <v>894794</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2396558596920412</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2226668646709073</v>
+        <v>0.2222486351525942</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2576453792322321</v>
+        <v>0.255882801849511</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1164</v>
@@ -2549,19 +2549,19 @@
         <v>900019</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>852625</v>
+        <v>854369</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>949532</v>
+        <v>943877</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2424333169172961</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2296669502295456</v>
+        <v>0.2301367215278018</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.255770302759872</v>
+        <v>0.2542471610748338</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1851</v>
@@ -2570,19 +2570,19 @@
         <v>1738069</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1662481</v>
+        <v>1656932</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1812528</v>
+        <v>1816503</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2410861094751664</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2306012555420714</v>
+        <v>0.2298315880906251</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2514142670029188</v>
+        <v>0.2519655786143904</v>
       </c>
     </row>
     <row r="30">
@@ -2599,19 +2599,19 @@
         <v>1901677</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1836605</v>
+        <v>1836018</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1971200</v>
+        <v>1967626</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.5438194674749741</v>
+        <v>0.543819467474974</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.5252109321776828</v>
+        <v>0.5250430088338336</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.5637007623007627</v>
+        <v>0.562678962093157</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>3350</v>
@@ -2620,19 +2620,19 @@
         <v>2134905</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>2079825</v>
+        <v>2080710</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>2192271</v>
+        <v>2189056</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.5750679897133658</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.5602313545999942</v>
+        <v>0.5604697243470345</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.590520302944298</v>
+        <v>0.5896543710671419</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>5390</v>
@@ -2641,19 +2641,19 @@
         <v>4036582</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>3948392</v>
+        <v>3949032</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>4116344</v>
+        <v>4126027</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.5599108735812696</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.5476781412053504</v>
+        <v>0.5477669085017933</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.5709746241734323</v>
+        <v>0.5723177336717251</v>
       </c>
     </row>
     <row r="31">
